--- a/biology/Botanique/Parc_Olbius-Riquier/Parc_Olbius-Riquier.xlsx
+++ b/biology/Botanique/Parc_Olbius-Riquier/Parc_Olbius-Riquier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc Olbius-Riquier est un jardin municipal situé à Hyères, dans le Var. D'une superficie de 70 000 m2, le parc abrite environ 2000 arbres et cactus du monde entier[1],[2].
-Le parc est classé comme Jardin remarquable[3].
+Le parc Olbius-Riquier est un jardin municipal situé à Hyères, dans le Var. D'une superficie de 70 000 m2, le parc abrite environ 2000 arbres et cactus du monde entier,.
+Le parc est classé comme Jardin remarquable.
 </t>
         </is>
       </c>
@@ -513,13 +525,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc fut légué, par testament, à la mairie d'Hyères, par Olbius Hippolyte Antoine Riquier le 13 avril 1868.
-Le 14 juillet 1872, sur une idée conjointe de la municipalité et d'Albert Geoffroy Saint-Hilaire, alors directeur du jardin d'acclimatation de Paris, une convention est signée donnant à bail pour vingt-six ans le terrain du clos Riquier afin d'y créer un établissement où l'on pourrait cultiver, étudier et créer des espèces tropicales susceptibles de s'acclimater dans nos régions. Le « jardin d'acclimatation de Hyères (Var) Clos-Ricquier » était une annexe du jardin d'acclimatation de Paris[4].
+Le 14 juillet 1872, sur une idée conjointe de la municipalité et d'Albert Geoffroy Saint-Hilaire, alors directeur du jardin d'acclimatation de Paris, une convention est signée donnant à bail pour vingt-six ans le terrain du clos Riquier afin d'y créer un établissement où l'on pourrait cultiver, étudier et créer des espèces tropicales susceptibles de s'acclimater dans nos régions. Le « jardin d'acclimatation de Hyères (Var) Clos-Ricquier » était une annexe du jardin d'acclimatation de Paris.
 De nos jours, ce parc de sept hectares est à la fois un jardin d'agrément et un jardin botanique, complanté de nombreuses essences exotiques rares comme Howea forsteriana ou Araucaria araucana. Le parc Olbius-Riquier bénéficie du label « Jardin remarquable ». S'y trouve aussi une serre exotique qui abrite de nombreuses essences tropicales, tels que : palmiers, bambous, bananiers, cactus, agaves, hibiscus...
-C'est également dans le parc que fut créée une des premières véritables palmeraies, à la fin du XIXe siècle, par Étienne Geoffroy Saint-Hilaire[5].
-De grands travaux auront lieu entre 1965 et 1991 après l'abandon du parc pour le réhabiliter[6].
+C'est également dans le parc que fut créée une des premières véritables palmeraies, à la fin du XIXe siècle, par Étienne Geoffroy Saint-Hilaire.
+De grands travaux auront lieu entre 1965 et 1991 après l'abandon du parc pour le réhabiliter.
 </t>
         </is>
       </c>
@@ -548,10 +562,12 @@
           <t>Aménagements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve, dans le parc, un manège, un petit train, des promenades à poney et des jeux pour enfants.
-Un petit parc animalier est également aménagé dans le jardin, on y remarque des daims, des chèvres, des oies, des perruches, des perroquets, un nandou, des paons, des canards et des singes . Une serre exotique est ouverte aux visiteurs de 8 h 45 à 12 h en été, du lundi au vendredi (8 h &gt; 11 h, 13 h 30 &gt; 16 h 45 en hiver)[4],[1].
+Un petit parc animalier est également aménagé dans le jardin, on y remarque des daims, des chèvres, des oies, des perruches, des perroquets, un nandou, des paons, des canards et des singes . Une serre exotique est ouverte aux visiteurs de 8 h 45 à 12 h en été, du lundi au vendredi (8 h &gt; 11 h, 13 h 30 &gt; 16 h 45 en hiver),.
 </t>
         </is>
       </c>
